--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_267.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_267.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,622 +488,648 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_29</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2363636363636364</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>jaah_32</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1617873651771957</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:7/C', 'A#:min/C#'], ['A#:min', 'F:maj/A', 'A#:min']]</t>
+          <t>[['E:7', 'A:maj', 'A:maj'], ['A:maj', 'A:maj', 'E:7/G#']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(7.7, 12.06), (0.34, 4.84)]</t>
+          <t>[['D:7', 'G', 'G'], ['G', 'G', 'D:7']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(0.8, 2.88), (14.0, 16.38)]</t>
+          <t>[('0:00:07.020000', '0:00:13.540000'), ('0:00:08.020000', '0:00:15.100000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>[('0:00:15.790000', '0:00:20.070000'), ('0:00:11.550000', '0:00:15.790000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_117</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_103</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.3819444444444445</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>isophonics_218</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.28125</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>[['G:7', 'C', 'F']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(7.16, 19.2)]</t>
+          <t>[['B:7/A', 'E:maj/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(0.6, 11.32)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:35.997000', '0:00:42.131000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:54.620000', '0:01:00.500000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_251</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_279</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1456043956043956</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D', 'G', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_82</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_180</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1169415292353823</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['C:maj', 'F/5', 'C:maj']]</t>
+          <t>[['G:min', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(7.525011, 12.93526)]</t>
+          <t>[['G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(10.619, 16.742)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+          <t>[('0:00:03.100000', '0:00:05.580000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:12.060000', '0:00:17.060000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_60</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_125</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.08603145235892692</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D', 'G', 'F#', 'F']]</t>
-        </is>
+          <t>schubert-winterreise_215</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1169415292353823</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'F#/5', 'F/5']]</t>
+          <t>[['G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(2.414897, 8.533356)]</t>
+          <t>[['F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(61.159603, 66.209943)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:15.780000', '0:00:21.280000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:02.560000', '0:00:04.800000')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jaah_64</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jaah_49</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.03081941226679673</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:maj6', 'A:min7'], ['A:7', 'D:min7', 'G:7'], ['F:maj6', 'G:7', 'C:7'], ['D:min7', 'G:7', 'C:maj6']]</t>
-        </is>
+          <t>isophonics_48</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_14</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1715686274509804</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb:maj6', 'Bb:maj6'], ['G:7', 'C:min7', 'F:7'], ['C:min7', 'F:7', 'Bb:7'], ['C:min7', 'F:7', 'Bb:maj6']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(21.82, 25.11), (19.66, 22.92), (44.78, 49.17), (20.73, 24.03)]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(25.34, 26.58), (0.58, 1.8), (2.6, 3.8), (5.79, 7.0)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:01:22.290863', '0:01:30.185647')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:01:23.340000', '0:01:27.640000')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5357142857142857</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj'], ['E:maj/B', 'B:maj', 'B:7', 'E:maj/B']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(0.38, 6.26)]</t>
+          <t>[['A', 'D', 'A', 'E'], ['A', 'E', 'E:7', 'A']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(46.52, 48.94)]</t>
+          <t>[('0:00:52.740000', '0:01:04.440000'), ('0:02:06.620000', '0:02:23.220000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:40.490000', '0:00:50.260000'), ('0:00:00.522000', '0:00:07.205000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_77</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1714285714285714</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min', 'A#:min/C#']]</t>
-        </is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_170</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4211538461538462</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(24.58, 32.94)]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(46.06, 53.66)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:16.440000', '0:00:45.540000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:01:10.380000', '0:01:30.980000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_157</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_48</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1964285714285714</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['E', 'E:7/3', 'A'], ['E', 'B', 'E']]</t>
-        </is>
+          <t>isophonics_182</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4833333333333333</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['F:maj', 'F:7', 'A#:maj'], ['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>[['G', 'C/5', 'G', 'C/5']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(20.410362, 24.856984), (12.921927, 21.908049)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(14.48, 22.82), (0.34, 17.94)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:00:59.182426', '0:01:06.310952')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:02:08.540000', '0:02:13.900000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_49</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2363636363636364</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
-        </is>
+          <t>isophonics_182</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4833333333333333</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/B', 'A:min/C'], ['A:min', 'E:maj/G#', 'A:min']]</t>
+          <t>[['G', 'C/5', 'G', 'C/5']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(9.62, 14.18), (1.88, 6.56)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(0.34, 2.34), (13.34, 16.08)]</t>
+          <t>[('0:00:59.182426', '0:01:06.310952')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:02:18.020000', '0:02:23.320000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_124</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.3611111111111111</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
-        </is>
+          <t>schubert-winterreise_4</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['F', 'Bb', 'F', 'C']]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(55.58, 66.2)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(15.124263, 21.811609)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:01:06.520000', '0:01:10.140000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:02:12.300000', '0:02:16.560000')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_181</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_99</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1238738738738739</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['Bb', 'Eb', 'Bb']]</t>
-        </is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_35</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(60.761383, 69.294716)]</t>
+          <t>[['G#:maj', 'D#:(3,5,b7,b9)', 'G#:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(75.8, 79.6)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:58.780000', '0:01:01.540000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:22.360000', '0:00:25.240000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_95</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_123</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.07672413793103448</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['C:min/G', 'G:7', 'C:min'], ['C:min/G', 'G', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7/F', 'F:min'], ['F:min', 'C:maj/F', 'F:min']]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(20.92, 24.02), (11.24, 15.78)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(14.92, 20.76), (5.84, 12.72)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:18.160000', '0:00:47.440000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:27.760000', '0:00:40.180000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_0</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.07480106100795755</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj'], ['G:maj', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_84</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_96</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab', 'Ab'], ['Ab', 'Eb:7', 'Ab']]</t>
+          <t>[['D#:maj', 'A#:maj', 'A#:min', 'F:min/C', 'C:7', 'F:min', 'G#:maj', 'G#:min', 'A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj', 'D#:maj', 'D#:7', 'G#:maj', 'C:(3,5,b7,b9)/G#', 'F:min/G#', 'D#:maj/A#', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(7.46, 13.64), (68.82, 77.92)]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(64.32, 68.27), (25.22, 27.17)]</t>
+          <t>[('0:00:40.100000', '0:01:24.580000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:42.240000', '0:01:30.860000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_192</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_8</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1228070175438596</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['C', 'E', 'A:min'], ['F', 'G', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_60</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_46</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['E', 'G#', 'C#:min'], ['A', 'B', 'E']]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(69.817165, 74.008366), (75.355124, 80.742154)]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(14.508557, 21.462934), (50.046698, 55.352457)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:06.300000', '0:01:59.400000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:10.360000', '0:01:59')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_11</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1833333333333333</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:min/G', 'G:maj'], ['C:maj', 'F:maj', 'C:maj/E'], ['C:min', 'G:maj', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min', 'C:maj'], ['F:maj', 'A#:maj', 'F:maj'], ['F:min', 'C:maj', 'F:min']]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(32.66, 35.46), (69.86, 73.74), (7.96, 13.12)]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(12.06, 16.72), (111.92, 115.36), (0.34, 4.84)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_174</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_135</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2415458937198068</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G', 'A', 'D', 'G', 'D', 'G'], ['D', 'G', 'A', 'D', 'G', 'D'], ['G', 'D', 'G', 'A', 'D', 'G']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A', 'B', 'E', 'A', 'E', 'A'], ['E', 'A', 'B', 'E', 'A', 'E'], ['A', 'E', 'A', 'B', 'E', 'A']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(44.836, 52.535), (43.934, 52.013), (43.43, 50.158)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(13.393711, 23.088042), (31.644596, 40.479788), (26.512986, 34.25684)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>[('0:02:32.440000', '0:02:37.160000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:02:30.200000', '0:02:34.940000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
